--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1848.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1848.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.5750404008868315</v>
+        <v>1.356900691986084</v>
       </c>
       <c r="B1">
-        <v>0.6256856779269195</v>
+        <v>2.863547563552856</v>
       </c>
       <c r="C1">
-        <v>0.7322687297523948</v>
+        <v>3.924045324325562</v>
       </c>
       <c r="D1">
-        <v>1.239285729172392</v>
+        <v>3.43274712562561</v>
       </c>
       <c r="E1">
-        <v>2.650880017358727</v>
+        <v>0.7882069945335388</v>
       </c>
     </row>
   </sheetData>
